--- a/table/table_merge/테이블명세_종합_fin.xlsx
+++ b/table/table_merge/테이블명세_종합_fin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iot\git clone\LPG-WebProject\table\table_merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" firstSheet="19" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="5" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="590">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,1716 +664,1744 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>agency_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주최사 홈페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angency_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주최사 전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의A</t>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 회원 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aContents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 작성 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qContents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 사용 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest attandee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회 참가팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회 참가팀 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 회원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약한 구장 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grdrsvCancStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grdrsvCancEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭 등록 정보 테이블()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>mch_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_grd</t>
+  </si>
+  <si>
+    <t>구장 예약 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 긴급여부(급구, 일반)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살화 or 축구화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_abil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구하는 개인의 실력수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치일시 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치타입(풋살, 축구) &lt;체크조건 필요&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가비(개별=참여비,팀별=구장비)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성매치 or 혼성매치 or 여성매치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치필요인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인별 경기 참여자 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여자 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭 참가 팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 팀 번호(idx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 매치 참가 용병 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 활동지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 활동구장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로 상 중 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_uniform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니폼 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_manner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀매너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 전술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_soccer_pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구 선호도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_fut_pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살 선호도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 만든 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구 팀 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원(teammember)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_joindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 가입날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 안에서 등급(매니저, 감독 팀원 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_tend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 포지션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상 중 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_evalgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 포지션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tms_team_goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 게임 개인 골(득점) 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tms_team_assist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 게임 개인 어시 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team member score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원성적 (경기 기록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_tend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성향(공격적, 수비적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_personal_goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인경기 골(득점) 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_mercenary_goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병게임 골(득점) 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 내용 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user sports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 축구 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 고유 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤 고유 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 롤 nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_trend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성향(운영 or 공격 or …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_winrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user esports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 LOL 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 LOL 평점 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매너점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실력점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유머점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user manner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 챔피언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_champion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 LOL 주챔피언 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 챔피언1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_prech2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 챔피언2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_prech3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 챔피언3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 LOL 친구 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_ban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prechampNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 챔피언 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myChampNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 챔피언 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 esports user id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 LOL 친구 그룹 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_fgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esports group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports MATCH_individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포지션 정보(무슨 포지션이 남았다(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gamesort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종류(일반, 솔큐 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatcreDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭방 생성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭참가원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ueNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가원 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esports match member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChampionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔피언정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔피언 고유번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔피언명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승률(변수타입 불확실)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pick_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽률(변수타입 불확실)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ban_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 축구 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 LOL tier 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_urgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mchinNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_team_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backupNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 용병 인원 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tms_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원성적번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_ no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tms_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATCH_Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esports Match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esports 매칭방 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가원 포지션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoL_prech1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(P)선호/(A)비선호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 LOL 선호/기피 챔피언 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user champion preference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>us_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 축구 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기장 사용 가능 인원(풋살or축구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살장 축구장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>대회지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agency_home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주최사 홈페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angency_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주최사 전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의A</t>
-  </si>
-  <si>
-    <t>Answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스포츠 회원 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aContents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 작성 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qContents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 사용 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Point History</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contest attandee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대회 참가팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대회 참가팀 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contest_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대회 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청자 회원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약한 구장 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grdrsvCancStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grdrsvCancEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매칭 등록 정보 테이블()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>mch_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_grd</t>
-  </si>
-  <si>
-    <t>구장 예약 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기 긴급여부(급구, 일반)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_shoes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풋살화 or 축구화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_abil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구하는 개인의 실력수준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치일시 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치타입(풋살, 축구) &lt;체크조건 필요&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가비(개별=참여비,팀별=구장비)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성매치 or 혼성매치 or 여성매치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_people</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치필요인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인별 경기 참여자 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여자 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매칭 참가 팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 팀 번호(idx)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용병 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 매치 참가 용병 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_introduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주 활동지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_ground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주 활동구장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로 상 중 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_uniform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니폼 색상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_manner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀매너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주 전술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_soccer_pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축구 선호도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_fut_pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풋살 선호도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 만든 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축구 팀 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원(teammember)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_joindate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 가입날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 안에서 등급(매니저, 감독 팀원 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_tend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주 포지션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상 중 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_evalgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주 포지션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tms_team_goal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 게임 개인 골(득점) 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tms_team_assist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 게임 개인 어시 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team member score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원성적 (경기 기록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_tend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성향(공격적, 수비적)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_foot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_personal_goal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인경기 골(득점) 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_mercenary_goal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용병게임 골(득점) 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프 내용 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user sports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 축구 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 고유 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롤 고유 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 롤 nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_trend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성향(운영 or 공격 or …)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_winrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user esports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 LOL 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 LOL 평점 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매너점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실력점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friendly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유머점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user manner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_ch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 챔피언</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_champion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 LOL 주챔피언 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선호 챔피언1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_prech2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선호 챔피언2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_prech3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선호 챔피언3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 LOL 친구 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구 메모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_ban</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차단 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_groupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user friends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prechampNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선호 챔피언 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myChampNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 챔피언 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구 esports user id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 LOL 친구 그룹 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_groupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_fgroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>esports group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sports match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sports backup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sports MATCH_individual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mrNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PosStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포지션 정보(무슨 포지션이 남았다(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gamesort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 종류(일반, 솔큐 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MatcreDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매칭방 생성날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매칭참가원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mmNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ueNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가원 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>esports match member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChampionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챔피언정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챔피언 고유번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챔피언명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승률(변수타입 불확실)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pick_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>픽률(변수타입 불확실)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch_tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ban_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ue_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 축구 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 LOL tier 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tier 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tier_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contest_target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_urgent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mchinNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_team_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backupNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한 용병 인원 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tms_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원성적번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tm_ no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tms_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATCH_Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ue_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Esports Match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>esports 매칭방 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가원 포지션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mmPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL_prech1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(P)선호/(A)비선호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 LOL 선호/기피 챔피언 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user champion preference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>us_No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 축구 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2864,7 +2892,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>70</v>
@@ -3097,11 +3125,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -3113,7 +3141,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -3124,19 +3152,19 @@
         <v>65</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3144,16 +3172,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3161,16 +3189,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3178,16 +3206,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3195,13 +3223,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3209,13 +3237,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,13 +3251,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3296,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -3280,7 +3308,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -3311,19 +3339,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>302</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3331,17 +3359,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>304</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3349,15 +3377,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3365,17 +3393,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3383,15 +3411,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3399,17 +3427,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3417,15 +3445,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3433,15 +3461,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>320</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>321</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3449,15 +3477,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3465,15 +3493,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3481,15 +3509,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3497,17 +3525,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>330</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3554,7 +3582,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -3562,11 +3590,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -3574,13 +3602,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>101</v>
@@ -3597,17 +3625,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3615,17 +3643,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3633,17 +3661,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3651,19 +3679,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3671,19 +3699,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3691,7 +3719,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>92</v>
@@ -3699,7 +3727,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3707,17 +3735,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3725,7 +3753,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>92</v>
@@ -3733,7 +3761,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3767,11 +3795,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -3784,7 +3812,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -3799,16 +3827,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -3817,17 +3845,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -3836,17 +3864,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -3855,15 +3883,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -3872,7 +3900,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>96</v>
@@ -3880,7 +3908,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G7" s="12"/>
     </row>
@@ -3889,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>96</v>
@@ -3897,7 +3925,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3935,7 +3963,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -3943,11 +3971,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -3955,7 +3983,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -3970,7 +3998,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3978,17 +4006,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3996,17 +4024,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4014,17 +4042,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4032,17 +4060,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,7 +4078,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>92</v>
@@ -4058,7 +4086,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4066,7 +4094,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>96</v>
@@ -4074,7 +4102,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4082,17 +4110,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,15 +4128,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4116,7 +4144,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>60</v>
@@ -4124,7 +4152,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4132,7 +4160,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>92</v>
@@ -4140,7 +4168,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4148,17 +4176,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4166,7 +4194,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>92</v>
@@ -4174,7 +4202,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4182,15 +4210,15 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4231,11 +4259,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -4243,11 +4271,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -4255,22 +4283,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4278,15 +4306,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4294,15 +4322,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4310,15 +4338,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4352,11 +4380,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -4364,11 +4392,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -4376,22 +4404,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4399,16 +4427,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4416,17 +4444,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4434,16 +4462,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>544</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4451,14 +4479,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4496,7 +4524,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -4508,7 +4536,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -4531,7 +4559,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4539,17 +4567,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4557,17 +4585,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4575,17 +4603,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4593,13 +4621,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4619,10 +4647,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4782,6 +4810,40 @@
       </c>
       <c r="F10" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -4804,7 +4866,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4975,16 +5037,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5022,7 +5084,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -5098,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
@@ -5107,7 +5169,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -5185,15 +5247,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -5202,17 +5264,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5299,7 +5361,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
@@ -5316,10 +5378,10 @@
         <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5383,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>61</v>
@@ -5397,7 +5459,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>61</v>
@@ -5411,16 +5473,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
@@ -5461,8 +5523,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5618,7 +5680,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>136</v>
@@ -5733,7 +5795,7 @@
         <v>153</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>154</v>
+        <v>589</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -5745,13 +5807,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -5763,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>130</v>
@@ -5772,7 +5834,7 @@
         <v>143</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -5781,11 +5843,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
@@ -5798,6 +5855,11 @@
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5829,7 +5891,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -5845,7 +5907,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -5884,16 +5946,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5901,16 +5963,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5918,16 +5980,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5935,16 +5997,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5978,11 +6040,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -5990,11 +6052,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -6002,22 +6064,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6025,22 +6087,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>449</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -6048,19 +6110,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>434</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6068,17 +6130,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6086,15 +6148,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>435</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>436</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6102,7 +6164,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>93</v>
@@ -6110,7 +6172,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6156,7 +6218,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -6164,11 +6226,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -6176,22 +6238,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>455</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6199,22 +6261,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>461</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -6222,17 +6284,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>463</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6282,11 +6344,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -6298,7 +6360,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -6306,19 +6368,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>473</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>7</v>
@@ -6329,19 +6391,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6349,17 +6411,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6367,15 +6429,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6383,17 +6445,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6401,17 +6463,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6419,17 +6481,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6437,17 +6499,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>488</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6483,11 +6545,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -6499,7 +6561,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -6522,7 +6584,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6530,19 +6592,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -6550,19 +6612,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6570,15 +6632,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -6771,7 +6833,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -6783,7 +6845,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -6794,13 +6856,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>502</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
@@ -6814,19 +6876,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6834,17 +6896,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6852,17 +6914,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6870,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>92</v>
@@ -6878,7 +6940,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6886,17 +6948,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6904,17 +6966,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>515</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>516</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6922,17 +6984,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -6971,7 +7033,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -6983,7 +7045,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -7000,13 +7062,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7014,19 +7076,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7034,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>60</v>
@@ -7044,7 +7106,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7052,15 +7114,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7068,15 +7130,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7084,15 +7146,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7100,20 +7162,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -7123,17 +7185,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -7175,7 +7237,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -7187,7 +7249,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -7218,19 +7280,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>104</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7238,19 +7300,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7258,17 +7320,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7276,17 +7338,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7294,17 +7356,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7312,17 +7374,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7330,17 +7392,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7396,7 +7458,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -7408,7 +7470,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -7439,22 +7501,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -7462,19 +7524,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7482,13 +7544,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7496,13 +7558,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -7539,7 +7601,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -7551,7 +7613,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -7582,22 +7644,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -7605,19 +7667,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7625,15 +7687,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7641,7 +7703,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>96</v>
@@ -7649,7 +7711,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -7657,7 +7719,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>96</v>
@@ -7665,7 +7727,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7673,15 +7735,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -7719,7 +7781,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -7727,11 +7789,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -7751,7 +7813,7 @@
         <v>101</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>7</v>
@@ -7762,19 +7824,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7782,19 +7844,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7802,19 +7864,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>407</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -7848,11 +7910,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -7864,7 +7926,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -7875,19 +7937,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7895,19 +7957,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7915,19 +7977,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7935,17 +7997,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7953,17 +8015,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>419</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>420</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7971,7 +8033,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>92</v>
@@ -7981,7 +8043,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7989,17 +8051,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -8048,7 +8110,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -8079,17 +8141,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8097,7 +8159,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
@@ -8107,7 +8169,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8115,7 +8177,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
@@ -8125,7 +8187,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8133,7 +8195,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>67</v>
@@ -8143,7 +8205,7 @@
         <v>106</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8151,7 +8213,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>77</v>
@@ -8159,7 +8221,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8167,7 +8229,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>96</v>
@@ -8175,7 +8237,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
